--- a/uploads/upload_polling_stations-1605711680852-polling-stations.xlsx
+++ b/uploads/upload_polling_stations-1605711680852-polling-stations.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PollingStations" sheetId="1" r:id="rId1"/>
+    <sheet name="PollingStations (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -52,8 +53,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -451,4 +461,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44160.291666666664</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44160.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44160.291666666664</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44160.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44160.291666666664</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44160.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>